--- a/server/src/test/resources/STN_Forecast_Fixture.xlsx
+++ b/server/src/test/resources/STN_Forecast_Fixture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilesh/HO_DRT/drt-v2/server/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D52BB3-F357-E349-A9E7-B2E8F063F8BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1407C9-C65E-C240-BAC3-6B69FE233692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,37 +49,37 @@
     <t>01/04/2020 00:00</t>
   </si>
   <si>
-    <t>FR 8165</t>
-  </si>
-  <si>
     <t>AGP</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>FR 1875</t>
-  </si>
-  <si>
     <t>NCE</t>
   </si>
   <si>
     <t>01/04/2020 00:15</t>
   </si>
   <si>
-    <t>FR 3034</t>
-  </si>
-  <si>
     <t>AGA</t>
   </si>
   <si>
     <t>01/04/2020 00:50</t>
   </si>
   <si>
-    <t>EZ 3248</t>
-  </si>
-  <si>
     <t>LJU</t>
+  </si>
+  <si>
+    <t>TST 0001</t>
+  </si>
+  <si>
+    <t>TST 0002</t>
+  </si>
+  <si>
+    <t>TST 0003</t>
+  </si>
+  <si>
+    <t>TST 0004</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -476,13 +476,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2">
         <v>73</v>
@@ -502,13 +502,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>74</v>
@@ -525,16 +525,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>98</v>
@@ -551,16 +551,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>43</v>
